--- a/spellsModel.xlsx
+++ b/spellsModel.xlsx
@@ -265,7 +265,7 @@
     <t>Somos Perú</t>
   </si>
   <si>
-    <t>Fernando Belaúnde Terry (2.º gob.)</t>
+    <t>Fernando Belaúnde Terry (II)</t>
   </si>
   <si>
     <t>Alan García</t>

--- a/spellsModel.xlsx
+++ b/spellsModel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="181">
   <si>
     <t>PCM</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>technocrat_trait_ltm</t>
   </si>
   <si>
     <t>Manuel Ulloa Elías</t>
@@ -915,13 +918,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P59"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -970,22 +973,25 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F2" s="2">
         <v>29430</v>
@@ -997,7 +1003,7 @@
         <v>864</v>
       </c>
       <c r="I2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1020,22 +1026,25 @@
       <c r="P2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2">
+        <v>-0.2533377311302512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F3" s="2">
         <v>30294</v>
@@ -1047,7 +1056,7 @@
         <v>488</v>
       </c>
       <c r="I3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1070,22 +1079,25 @@
       <c r="P3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3">
+        <v>-0.782603495494946</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F4" s="2">
         <v>30782</v>
@@ -1097,7 +1109,7 @@
         <v>186</v>
       </c>
       <c r="I4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1120,22 +1132,25 @@
       <c r="P4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4">
+        <v>-0.2533377311302512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F5" s="2">
         <v>30968</v>
@@ -1147,7 +1162,7 @@
         <v>287</v>
       </c>
       <c r="I5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1170,22 +1185,25 @@
       <c r="P5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5">
+        <v>-0.2533377311302512</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F6" s="2">
         <v>31256</v>
@@ -1197,7 +1215,7 @@
         <v>698</v>
       </c>
       <c r="I6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1220,22 +1238,25 @@
       <c r="P6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6">
+        <v>-0.782603495494946</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F7" s="2">
         <v>31955</v>
@@ -1247,7 +1268,7 @@
         <v>321</v>
       </c>
       <c r="I7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1270,22 +1291,25 @@
       <c r="P7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7">
+        <v>-0.782603495494946</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F8" s="2">
         <v>32276</v>
@@ -1297,7 +1321,7 @@
         <v>367</v>
       </c>
       <c r="I8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1320,22 +1344,25 @@
       <c r="P8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8">
+        <v>-0.782603495494946</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F9" s="2">
         <v>32643</v>
@@ -1347,7 +1374,7 @@
         <v>138</v>
       </c>
       <c r="I9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1370,22 +1397,25 @@
       <c r="P9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9">
+        <v>-0.782603495494946</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F10" s="2">
         <v>32781</v>
@@ -1397,7 +1427,7 @@
         <v>300</v>
       </c>
       <c r="I10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1420,22 +1450,25 @@
       <c r="P10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10">
+        <v>-0.782603495494946</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F11" s="2">
         <v>33082</v>
@@ -1447,7 +1480,7 @@
         <v>207</v>
       </c>
       <c r="I11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1470,22 +1503,25 @@
       <c r="P11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11">
+        <v>0.8261093516360074</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F12" s="2">
         <v>33284</v>
@@ -1497,7 +1533,7 @@
         <v>264</v>
       </c>
       <c r="I12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1520,22 +1556,25 @@
       <c r="P12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12">
+        <v>0.8261093516360074</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F13" s="2">
         <v>33548</v>
@@ -1547,7 +1586,7 @@
         <v>152</v>
       </c>
       <c r="I13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1570,22 +1609,25 @@
       <c r="P13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13">
+        <v>0.103452911587286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F14" s="2">
         <v>33700</v>
@@ -1597,7 +1639,7 @@
         <v>509</v>
       </c>
       <c r="I14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1620,22 +1662,25 @@
       <c r="P14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14">
+        <v>0.103452911587286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F15" s="2">
         <v>34209</v>
@@ -1647,7 +1692,7 @@
         <v>173</v>
       </c>
       <c r="I15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1670,22 +1715,25 @@
       <c r="P15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15">
+        <v>1.284431678775634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F16" s="2">
         <v>34382</v>
@@ -1697,7 +1745,7 @@
         <v>526</v>
       </c>
       <c r="I16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1720,22 +1768,25 @@
       <c r="P16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16">
+        <v>0.4982253242490159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F17" s="2">
         <v>34907</v>
@@ -1747,7 +1798,7 @@
         <v>251</v>
       </c>
       <c r="I17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1770,22 +1821,25 @@
       <c r="P17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17">
+        <v>0.4982253242490159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F18" s="2">
         <v>35158</v>
@@ -1797,7 +1851,7 @@
         <v>792</v>
       </c>
       <c r="I18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1820,22 +1874,25 @@
       <c r="P18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18">
+        <v>1.284431678775634</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F19" s="2">
         <v>35950</v>
@@ -1847,7 +1904,7 @@
         <v>78</v>
       </c>
       <c r="I19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1870,22 +1927,25 @@
       <c r="P19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19">
+        <v>-0.782603495494946</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F20" s="2">
         <v>36028</v>
@@ -1897,7 +1957,7 @@
         <v>287</v>
       </c>
       <c r="I20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1920,22 +1980,25 @@
       <c r="P20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20">
+        <v>1.284431678775634</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F21" s="2">
         <v>36163</v>
@@ -1947,7 +2010,7 @@
         <v>280</v>
       </c>
       <c r="I21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1970,22 +2033,25 @@
       <c r="P21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21">
+        <v>0.4941803856393971</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F22" s="2">
         <v>36443</v>
@@ -1997,7 +2063,7 @@
         <v>293</v>
       </c>
       <c r="I22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -2020,22 +2086,25 @@
       <c r="P22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22">
+        <v>0.8261093516360074</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F23" s="2">
         <v>36736</v>
@@ -2047,7 +2116,7 @@
         <v>115</v>
       </c>
       <c r="I23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -2070,22 +2139,25 @@
       <c r="P23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23">
+        <v>-0.782603495494946</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F24" s="2">
         <v>36852</v>
@@ -2097,7 +2169,7 @@
         <v>248</v>
       </c>
       <c r="I24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2120,22 +2192,25 @@
       <c r="P24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24">
+        <v>-0.782603495494946</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F25" s="2">
         <v>37100</v>
@@ -2147,7 +2222,7 @@
         <v>348</v>
       </c>
       <c r="I25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2170,22 +2245,25 @@
       <c r="P25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="Q25">
+        <v>1.284431678775634</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F26" s="2">
         <v>37449</v>
@@ -2197,7 +2275,7 @@
         <v>346</v>
       </c>
       <c r="I26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2220,22 +2298,25 @@
       <c r="P26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26">
+        <v>-0.782603495494946</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F27" s="2">
         <v>37795</v>
@@ -2247,7 +2328,7 @@
         <v>172</v>
       </c>
       <c r="I27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2270,22 +2351,25 @@
       <c r="P27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="Q27">
+        <v>0.4941803856393971</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F28" s="2">
         <v>37970</v>
@@ -2297,7 +2381,7 @@
         <v>609</v>
       </c>
       <c r="I28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2320,22 +2404,25 @@
       <c r="P28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="Q28">
+        <v>-0.782603495494946</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F29" s="2">
         <v>38580</v>
@@ -2347,7 +2434,7 @@
         <v>346</v>
       </c>
       <c r="I29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2370,22 +2457,25 @@
       <c r="P29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="Q29">
+        <v>1.284431678775634</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F30" s="2">
         <v>38926</v>
@@ -2397,7 +2487,7 @@
         <v>805</v>
       </c>
       <c r="I30" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2420,22 +2510,25 @@
       <c r="P30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="Q30">
+        <v>-0.782603495494946</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F31" s="2">
         <v>39735</v>
@@ -2447,7 +2540,7 @@
         <v>270</v>
       </c>
       <c r="I31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2470,22 +2563,25 @@
       <c r="P31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="Q31">
+        <v>-0.782603495494946</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F32" s="2">
         <v>40005</v>
@@ -2497,7 +2593,7 @@
         <v>429</v>
       </c>
       <c r="I32" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2520,22 +2616,25 @@
       <c r="P32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="Q32">
+        <v>-0.782603495494946</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F33" s="2">
         <v>40435</v>
@@ -2547,7 +2646,7 @@
         <v>185</v>
       </c>
       <c r="I33" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2570,22 +2669,25 @@
       <c r="P33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="Q33">
+        <v>1.284431678775634</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F34" s="2">
         <v>40621</v>
@@ -2597,7 +2699,7 @@
         <v>131</v>
       </c>
       <c r="I34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2620,22 +2722,25 @@
       <c r="P34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="Q34">
+        <v>0.4982253242490159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E35" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F35" s="2">
         <v>40752</v>
@@ -2647,7 +2752,7 @@
         <v>135</v>
       </c>
       <c r="I35" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2670,22 +2775,25 @@
       <c r="P35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="Q35">
+        <v>1.284431678775634</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F36" s="2">
         <v>40887</v>
@@ -2697,7 +2805,7 @@
         <v>226</v>
       </c>
       <c r="I36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2720,22 +2828,25 @@
       <c r="P36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="Q36">
+        <v>-0.2533377311302512</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E37" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F37" s="2">
         <v>41113</v>
@@ -2747,7 +2858,7 @@
         <v>463</v>
       </c>
       <c r="I37" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2770,22 +2881,25 @@
       <c r="P37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="Q37">
+        <v>0.8261093516360074</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D38" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E38" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F38" s="2">
         <v>41578</v>
@@ -2797,7 +2911,7 @@
         <v>116</v>
       </c>
       <c r="I38" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2820,22 +2934,25 @@
       <c r="P38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="Q38">
+        <v>-0.782603495494946</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D39" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E39" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F39" s="2">
         <v>41694</v>
@@ -2847,7 +2964,7 @@
         <v>148</v>
       </c>
       <c r="I39" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2870,22 +2987,25 @@
       <c r="P39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="Q39">
+        <v>0.103452911587286</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D40" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F40" s="2">
         <v>41842</v>
@@ -2897,7 +3017,7 @@
         <v>254</v>
       </c>
       <c r="I40" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2920,22 +3040,25 @@
       <c r="P40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="Q40">
+        <v>-0.782603495494946</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E41" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F41" s="2">
         <v>42096</v>
@@ -2947,7 +3070,7 @@
         <v>483</v>
       </c>
       <c r="I41" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2970,22 +3093,25 @@
       <c r="P41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="Q41">
+        <v>0.09924610477600122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D42" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E42" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F42" s="2">
         <v>42579</v>
@@ -2997,7 +3123,7 @@
         <v>414</v>
       </c>
       <c r="I42" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -3020,22 +3146,25 @@
       <c r="P42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="Q42">
+        <v>1.284431678775634</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E43" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F43" s="2">
         <v>42995</v>
@@ -3047,7 +3176,7 @@
         <v>187</v>
       </c>
       <c r="I43" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -3070,22 +3199,25 @@
       <c r="P43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="Q43">
+        <v>0.09924610477600122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E44" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F44" s="2">
         <v>43182</v>
@@ -3097,7 +3229,7 @@
         <v>10</v>
       </c>
       <c r="I44" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -3120,22 +3252,25 @@
       <c r="P44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="Q44">
+        <v>0.09924610477600122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D45" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E45" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F45" s="2">
         <v>43192</v>
@@ -3147,7 +3282,7 @@
         <v>340</v>
       </c>
       <c r="I45" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -3170,22 +3305,25 @@
       <c r="P45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="Q45">
+        <v>-0.782603495494946</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D46" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E46" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F46" s="2">
         <v>43535</v>
@@ -3197,7 +3335,7 @@
         <v>203</v>
       </c>
       <c r="I46" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -3220,22 +3358,25 @@
       <c r="P46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="Q46">
+        <v>0.8261093516360074</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D47" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E47" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F47" s="2">
         <v>43738</v>
@@ -3247,7 +3388,7 @@
         <v>289</v>
       </c>
       <c r="I47" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -3270,22 +3411,25 @@
       <c r="P47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="Q47">
+        <v>0.09924610477600122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E48" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F48" s="2">
         <v>44027</v>
@@ -3297,7 +3441,7 @@
         <v>22</v>
       </c>
       <c r="I48" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -3320,22 +3464,25 @@
       <c r="P48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="Q48">
+        <v>0.09924610477600122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D49" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E49" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F49" s="2">
         <v>44049</v>
@@ -3347,7 +3494,7 @@
         <v>96</v>
       </c>
       <c r="I49" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -3370,22 +3517,25 @@
       <c r="P49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="Q49">
+        <v>0.103452911587286</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D50" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E50" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F50" s="2">
         <v>44146</v>
@@ -3397,7 +3547,7 @@
         <v>6</v>
       </c>
       <c r="I50" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -3420,22 +3570,25 @@
       <c r="P50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="Q50">
+        <v>-0.782603495494946</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D51" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E51" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F51" s="2">
         <v>44153</v>
@@ -3447,7 +3600,7 @@
         <v>252</v>
       </c>
       <c r="I51" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -3470,22 +3623,25 @@
       <c r="P51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="Q51">
+        <v>0.103452911587286</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C52" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D52" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E52" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F52" s="2">
         <v>44406</v>
@@ -3497,7 +3653,7 @@
         <v>69</v>
       </c>
       <c r="I52" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -3520,22 +3676,25 @@
       <c r="P52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="Q52">
+        <v>-0.782603495494946</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C53" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D53" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E53" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F53" s="2">
         <v>44475</v>
@@ -3547,7 +3706,7 @@
         <v>117</v>
       </c>
       <c r="I53" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -3570,22 +3729,25 @@
       <c r="P53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="Q53">
+        <v>-0.782603495494946</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C54" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D54" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E54" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F54" s="2">
         <v>44593</v>
@@ -3597,7 +3759,7 @@
         <v>7</v>
       </c>
       <c r="I54" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -3620,22 +3782,25 @@
       <c r="P54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:16">
+      <c r="Q54">
+        <v>0.09924610477600122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C55" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D55" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E55" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F55" s="2">
         <v>44600</v>
@@ -3647,7 +3812,7 @@
         <v>289</v>
       </c>
       <c r="I55" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -3670,22 +3835,25 @@
       <c r="P55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="Q55">
+        <v>0.103452911587286</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D56" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E56" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F56" s="2">
         <v>44890</v>
@@ -3697,7 +3865,7 @@
         <v>12</v>
       </c>
       <c r="I56" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -3720,22 +3888,25 @@
       <c r="P56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="Q56">
+        <v>-0.782603495494946</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C57" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D57" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E57" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F57" s="2">
         <v>44905</v>
@@ -3747,7 +3918,7 @@
         <v>11</v>
       </c>
       <c r="I57" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -3770,22 +3941,25 @@
       <c r="P57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="Q57">
+        <v>-0.782603495494946</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C58" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E58" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F58" s="2">
         <v>44916</v>
@@ -3797,7 +3971,7 @@
         <v>440</v>
       </c>
       <c r="I58" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -3820,22 +3994,25 @@
       <c r="P58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:16">
+      <c r="Q58">
+        <v>-0.782603495494946</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D59" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E59" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F59" s="2">
         <v>45357</v>
@@ -3847,7 +4024,7 @@
         <v>434</v>
       </c>
       <c r="I59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -3869,6 +4046,9 @@
       </c>
       <c r="P59">
         <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0.8261093516360074</v>
       </c>
     </row>
   </sheetData>
